--- a/docs/鍵盤.xlsx
+++ b/docs/鍵盤.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-taigi\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D765D3-42FF-4EA7-B1B9-012B0B193D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17920CEE-1A72-45C0-9923-062BD2E85901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="鍵盤圖" sheetId="4" r:id="rId1"/>
@@ -300,6 +300,7 @@
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>p</t>
     </r>
@@ -307,6 +308,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">          LNP</t>
     </r>
@@ -808,6 +810,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ŋ</t>
     </r>
@@ -829,6 +832,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ɔ</t>
     </r>
@@ -850,6 +854,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ɔ</t>
     </r>
@@ -879,6 +884,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ɔ</t>
     </r>
@@ -900,6 +906,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ŋ</t>
     </r>
@@ -921,6 +928,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ɔŋ</t>
     </r>
@@ -942,6 +950,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ŋ</t>
     </r>
@@ -963,6 +972,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ŋ</t>
     </r>
@@ -1507,7 +1517,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1516,6 +1526,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1526,6 +1537,7 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -1537,11 +1549,13 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="20"/>
@@ -1576,6 +1590,7 @@
     <font>
       <sz val="16"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="16"/>
@@ -1607,6 +1622,7 @@
       <sz val="12"/>
       <color theme="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1668,6 +1684,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -1687,12 +1704,6 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="LXGW WenKai Mono TC"/>
-      <family val="3"/>
       <charset val="136"/>
     </font>
     <font>
@@ -1832,7 +1843,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1903,6 +1914,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1921,85 +2010,19 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2007,27 +2030,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2335,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C1:AP23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AR9" sqref="AR9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AI6" sqref="AI6:AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2349,56 +2351,56 @@
   <sheetData>
     <row r="1" spans="3:42" ht="15" thickBot="1"/>
     <row r="2" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="46">
+      <c r="C2" s="24">
         <v>1</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="46">
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="24">
         <v>2</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="37">
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="47">
         <v>3</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="37">
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="47">
         <v>4</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="37">
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="47">
         <v>5</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="37">
+      <c r="P2" s="48"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="47">
         <v>6</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="37">
+      <c r="S2" s="48"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="47">
         <v>7</v>
       </c>
-      <c r="V2" s="38"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="35">
+      <c r="V2" s="48"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="27">
         <v>8</v>
       </c>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="24">
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="50">
         <v>9</v>
       </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="24">
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="50">
         <v>0</v>
       </c>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="26"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="52"/>
       <c r="AG2" s="56" t="s">
         <v>1</v>
       </c>
@@ -2409,340 +2411,340 @@
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="62" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="62" t="s">
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="44" t="s">
         <v>364</v>
       </c>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="65" t="s">
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="59" t="s">
         <v>365</v>
       </c>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="64"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="46"/>
     </row>
     <row r="4" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="46" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="46" t="s">
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="46" t="s">
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="47"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="46" t="s">
+      <c r="N4" s="25"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="46" t="s">
+      <c r="Q4" s="25"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="47"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="35" t="s">
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="W4" s="30"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="35" t="s">
+      <c r="W4" s="28"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="35" t="s">
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="35" t="s">
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="24" t="s">
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="50" t="s">
         <v>359</v>
       </c>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="24" t="s">
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="50" t="s">
         <v>360</v>
       </c>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="59" t="s">
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="61"/>
+      <c r="AO4" s="61"/>
+      <c r="AP4" s="62"/>
     </row>
     <row r="5" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="27" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="53" t="s">
         <v>366</v>
       </c>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="27" t="s">
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="53" t="s">
         <v>367</v>
       </c>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="27" t="s">
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="53" t="s">
         <v>368</v>
       </c>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="29"/>
+      <c r="AO5" s="54"/>
+      <c r="AP5" s="55"/>
     </row>
     <row r="6" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="3"/>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="46" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="46" t="s">
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="46" t="s">
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="47"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="46" t="s">
+      <c r="O6" s="25"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="47"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="46" t="s">
+      <c r="R6" s="25"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="U6" s="47"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="35" t="s">
+      <c r="U6" s="25"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="35" t="s">
+      <c r="X6" s="28"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="35" t="s">
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="35" t="s">
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="24" t="s">
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="52"/>
+      <c r="AI6" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="26"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="29"/>
     </row>
     <row r="7" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="62" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="AJ7" s="63"/>
-      <c r="AK7" s="64"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="46"/>
     </row>
     <row r="8" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="46" t="s">
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="46" t="s">
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="46" t="s">
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="46" t="s">
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="47"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="46" t="s">
+      <c r="S8" s="25"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="V8" s="47"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="35" t="s">
+      <c r="V8" s="25"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="35" t="s">
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="35" t="s">
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="24" t="s">
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="26"/>
+      <c r="AH8" s="51"/>
+      <c r="AI8" s="52"/>
     </row>
     <row r="9" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="27" t="s">
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="53" t="s">
         <v>370</v>
       </c>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="29"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="55"/>
     </row>
     <row r="13" spans="3:42">
       <c r="D13" s="1" t="s">
@@ -3314,20 +3316,66 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="AI7:AK7"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
     <mergeCell ref="T6:V6"/>
     <mergeCell ref="W6:Y6"/>
     <mergeCell ref="Z6:AB6"/>
@@ -3344,66 +3392,20 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="AI7:AK7"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3415,7 +3417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>

--- a/docs/鍵盤.xlsx
+++ b/docs/鍵盤.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17920CEE-1A72-45C0-9923-062BD2E85901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650B8CD8-3F0A-48EE-ABBF-1A6A4F03F96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="鍵盤圖" sheetId="4" r:id="rId1"/>
-    <sheet name="聲韻母" sheetId="2" r:id="rId2"/>
-    <sheet name="說明" sheetId="5" r:id="rId3"/>
+    <sheet name="注音符號" sheetId="6" r:id="rId1"/>
+    <sheet name="聲調" sheetId="4" r:id="rId2"/>
+    <sheet name="聲韻母" sheetId="2" r:id="rId3"/>
+    <sheet name="說明" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="398">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,7 +301,6 @@
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>p</t>
     </r>
@@ -308,7 +308,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t xml:space="preserve">          LNP</t>
     </r>
@@ -810,7 +809,6 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ŋ</t>
     </r>
@@ -832,7 +830,6 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ɔ</t>
     </r>
@@ -854,7 +851,6 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ɔ</t>
     </r>
@@ -884,7 +880,6 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ɔ</t>
     </r>
@@ -906,7 +901,6 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ŋ</t>
     </r>
@@ -928,7 +922,6 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ɔŋ</t>
     </r>
@@ -950,7 +943,6 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ŋ</t>
     </r>
@@ -972,7 +964,6 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ŋ</t>
     </r>
@@ -1512,12 +1503,119 @@
     <t>陰上(á)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">/   ? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.    &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,    &lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>;   :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ｎ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'    "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ˋ</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>˪</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>ˊ</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>˫</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>˙</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>\   |</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[   {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>]   }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-   _</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=   +</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1   !</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>2   @</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>3   #</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>4   $</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>5   %</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>6   ^</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>7   &amp;</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>8   *</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>9   (</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>0   )</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1526,7 +1624,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1537,7 +1634,6 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -1549,13 +1645,11 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="20"/>
@@ -1590,7 +1684,6 @@
     <font>
       <sz val="16"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="16"/>
@@ -1622,7 +1715,6 @@
       <sz val="12"/>
       <color theme="9"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1684,7 +1776,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -1704,7 +1795,6 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -1735,6 +1825,66 @@
       <name val="LXGW WenKai Mono TC"/>
       <family val="3"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="BopomofoRuby1909-v1"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="9"/>
+      <name val="LXGW WenKai Mono TC"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="LXGW WenKai Mono TC"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Roboto Black"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1843,7 +1993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1914,6 +2064,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1923,33 +2166,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1965,70 +2181,130 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="43" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2334,10 +2610,1205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB014B9C-6F7D-4B9D-A3D0-947810807EC2}">
+  <dimension ref="C1:AP23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AS10" sqref="AS10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="2.375" style="1" customWidth="1"/>
+    <col min="3" max="37" width="3.375" style="1" customWidth="1"/>
+    <col min="38" max="44" width="2.875" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:42" ht="15" thickBot="1"/>
+    <row r="2" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="C2" s="98" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="98" t="s">
+        <v>389</v>
+      </c>
+      <c r="G2" s="99"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="101" t="s">
+        <v>390</v>
+      </c>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="101" t="s">
+        <v>391</v>
+      </c>
+      <c r="M2" s="102"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="104" t="s">
+        <v>392</v>
+      </c>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="101" t="s">
+        <v>393</v>
+      </c>
+      <c r="S2" s="102"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="101" t="s">
+        <v>394</v>
+      </c>
+      <c r="V2" s="102"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="94" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="94" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="94" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE2" s="95"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="94" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH2" s="95"/>
+      <c r="AI2" s="96"/>
+      <c r="AJ2" s="97" t="s">
+        <v>387</v>
+      </c>
+      <c r="AK2" s="95"/>
+      <c r="AL2" s="96"/>
+    </row>
+    <row r="3" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C3" s="64" t="str">
+        <f>D14</f>
+        <v>ㄅ</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="64" t="str">
+        <f>H14</f>
+        <v>ㄉ</v>
+      </c>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="88" t="s">
+        <v>379</v>
+      </c>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="88" t="s">
+        <v>381</v>
+      </c>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="88" t="s">
+        <v>380</v>
+      </c>
+      <c r="S3" s="89"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="V3" s="92"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="70" t="str">
+        <f>D20</f>
+        <v>ㄚ</v>
+      </c>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="73" t="str">
+        <f xml:space="preserve"> K20</f>
+        <v>ㄞ</v>
+      </c>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="73" t="str">
+        <f>R20</f>
+        <v>ㄢ</v>
+      </c>
+      <c r="AE3" s="74"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="76" t="s">
+        <v>376</v>
+      </c>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="75"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="74"/>
+      <c r="AL3" s="75"/>
+    </row>
+    <row r="4" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="D4" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="80"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="80"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="80"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="80"/>
+      <c r="U4" s="81"/>
+      <c r="V4" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="83"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="94" t="s">
+        <v>384</v>
+      </c>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="96"/>
+      <c r="AK4" s="94" t="s">
+        <v>385</v>
+      </c>
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="94" t="s">
+        <v>383</v>
+      </c>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="96"/>
+    </row>
+    <row r="5" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="D5" s="64" t="str">
+        <f>F14</f>
+        <v>ㄆ</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="64" t="str">
+        <f>I14</f>
+        <v>ㄊ</v>
+      </c>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="64" t="str">
+        <f>L14</f>
+        <v>ㄍ</v>
+      </c>
+      <c r="K5" s="65"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="64" t="str">
+        <f>Q14</f>
+        <v>ㄐ</v>
+      </c>
+      <c r="N5" s="65"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="67" t="str">
+        <f>M14</f>
+        <v>ㆣ</v>
+      </c>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="64" t="str">
+        <f>U14</f>
+        <v>ㄗ</v>
+      </c>
+      <c r="T5" s="65"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="70" t="str">
+        <f>X20</f>
+        <v>ㄧ</v>
+      </c>
+      <c r="W5" s="71"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="70" t="str">
+        <f>F20</f>
+        <v>ㆦ</v>
+      </c>
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="70" t="str">
+        <f>I20</f>
+        <v>ㆤ</v>
+      </c>
+      <c r="AC5" s="71"/>
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="70" t="str">
+        <f>S20</f>
+        <v>ㄣ</v>
+      </c>
+      <c r="AF5" s="71"/>
+      <c r="AG5" s="72"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="29"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="28"/>
+      <c r="AP5" s="29"/>
+    </row>
+    <row r="6" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="D6" s="3"/>
+      <c r="E6" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="80"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="80"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="80"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="80"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="94" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG6" s="95"/>
+      <c r="AH6" s="96"/>
+      <c r="AI6" s="94" t="s">
+        <v>377</v>
+      </c>
+      <c r="AJ6" s="95"/>
+      <c r="AK6" s="96"/>
+    </row>
+    <row r="7" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="E7" s="64" t="str">
+        <f>G14</f>
+        <v>ㄇ</v>
+      </c>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="64" t="str">
+        <f>J14</f>
+        <v>ㄋ</v>
+      </c>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="64" t="str">
+        <f>N14</f>
+        <v>ㄎ</v>
+      </c>
+      <c r="L7" s="65"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="64" t="str">
+        <f>S14</f>
+        <v>ㄑ</v>
+      </c>
+      <c r="O7" s="65"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="77" t="str">
+        <f>O14</f>
+        <v>ㄫ</v>
+      </c>
+      <c r="R7" s="68"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="64" t="str">
+        <f>W14</f>
+        <v>ㄘ</v>
+      </c>
+      <c r="U7" s="65"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="70" t="str">
+        <f>Z20</f>
+        <v>ㄨ</v>
+      </c>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="70" t="str">
+        <f>H20</f>
+        <v>ㄜ</v>
+      </c>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="78" t="str">
+        <f>M20</f>
+        <v>ㄠ</v>
+      </c>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="73" t="str">
+        <f>T20</f>
+        <v>ㄤ</v>
+      </c>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="73"/>
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="75"/>
+    </row>
+    <row r="8" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="F8" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="80"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="80"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="80"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="80"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8" s="80"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="84"/>
+      <c r="AA8" s="94" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB8" s="95"/>
+      <c r="AC8" s="96"/>
+      <c r="AD8" s="94" t="s">
+        <v>372</v>
+      </c>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="96"/>
+      <c r="AG8" s="94" t="s">
+        <v>371</v>
+      </c>
+      <c r="AH8" s="95"/>
+      <c r="AI8" s="96"/>
+    </row>
+    <row r="9" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="F9" s="67" t="str">
+        <f>E14</f>
+        <v>ㆠ</v>
+      </c>
+      <c r="G9" s="68"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="64" t="str">
+        <f>K14</f>
+        <v>ㄌ</v>
+      </c>
+      <c r="J9" s="65"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="64" t="str">
+        <f>P14</f>
+        <v>ㄏ</v>
+      </c>
+      <c r="M9" s="65"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="64" t="str">
+        <f>T14</f>
+        <v>ㄒ</v>
+      </c>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="67" t="str">
+        <f>V14 &amp; " " &amp; R14</f>
+        <v>ㆡ ㆢ</v>
+      </c>
+      <c r="S9" s="68"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="64" t="str">
+        <f>X14</f>
+        <v>ㄙ</v>
+      </c>
+      <c r="V9" s="65"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="70" t="str">
+        <f>Q20</f>
+        <v>ㆬ</v>
+      </c>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="85" t="str">
+        <f>O20 &amp; " " &amp; P20</f>
+        <v>ㆰ ㆱ</v>
+      </c>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="70" t="str">
+        <f>U20</f>
+        <v>ㆲ</v>
+      </c>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="73" t="str">
+        <f>W20</f>
+        <v>ㆭ</v>
+      </c>
+      <c r="AH9" s="74"/>
+      <c r="AI9" s="75"/>
+      <c r="AL9" s="63" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="13" spans="3:42">
+      <c r="D13" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="3:42">
+      <c r="D14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="3:42" ht="19.5">
+      <c r="D15" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="R15" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="S15" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="T15" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="U15" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="V15" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="W15" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="X15" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y15" s="16"/>
+    </row>
+    <row r="16" spans="3:42" ht="19.5">
+      <c r="D16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="S16" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="T16" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="U16" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="V16" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="W16" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="X16" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y16" s="16"/>
+    </row>
+    <row r="17" spans="4:27">
+      <c r="D17" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="R17" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="S17" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="T17" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="U17" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="V17" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="W17" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="X17" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="4:27">
+      <c r="D19" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="4:27">
+      <c r="D20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="4:27" ht="15">
+      <c r="D21" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="R21" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="S21" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="T21" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="U21" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="V21" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="W21" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="X21" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y21" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z21" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA21" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="22" spans="4:27" ht="16.5">
+      <c r="D22" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="O22" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="P22" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q22" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="R22" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="S22" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="U22" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="V22" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="W22" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="X22" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y22" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z22" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA22" s="17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="4:27">
+      <c r="D23" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="O23" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="P23" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q23" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="R23" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="S23" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="T23" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="U23" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="V23" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="W23" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="X23" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y23" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z23" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA23" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="92">
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AI7:AK7"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+  </mergeCells>
+  <phoneticPr fontId="34" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="O9" formula="1"/>
+    <ignoredError sqref="O2" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C1:AP23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="AI6" sqref="AI6:AK6"/>
     </sheetView>
   </sheetViews>
@@ -2351,400 +3822,400 @@
   <sheetData>
     <row r="1" spans="3:42" ht="15" thickBot="1"/>
     <row r="2" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="24">
+      <c r="C2" s="55">
         <v>1</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="24">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="55">
         <v>2</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="47">
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="46">
         <v>3</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="47">
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="46">
         <v>4</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="47">
+      <c r="M2" s="47"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="46">
         <v>5</v>
       </c>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="47">
+      <c r="P2" s="47"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="46">
         <v>6</v>
       </c>
-      <c r="S2" s="48"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="47">
+      <c r="S2" s="47"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="46">
         <v>7</v>
       </c>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="27">
+      <c r="V2" s="47"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="39">
         <v>8</v>
       </c>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="50">
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="30">
         <v>9</v>
       </c>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="50">
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="30">
         <v>0</v>
       </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="56" t="s">
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="58"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="44" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="45" t="s">
         <v>363</v>
       </c>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="44" t="s">
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="45" t="s">
         <v>364</v>
       </c>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="59" t="s">
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="36" t="s">
         <v>365</v>
       </c>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="46"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="38"/>
     </row>
     <row r="4" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="24" t="s">
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="24" t="s">
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="24" t="s">
+      <c r="K4" s="56"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="25"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="24" t="s">
+      <c r="N4" s="56"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="24" t="s">
+      <c r="Q4" s="56"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="25"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="27" t="s">
+      <c r="T4" s="56"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="W4" s="28"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="27" t="s">
+      <c r="W4" s="40"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="27" t="s">
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="27" t="s">
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="50" t="s">
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="50" t="s">
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="52"/>
-      <c r="AN4" s="60" t="s">
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="AO4" s="61"/>
-      <c r="AP4" s="62"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="26"/>
     </row>
     <row r="5" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="53" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="AI5" s="54"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="53" t="s">
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="55"/>
-      <c r="AN5" s="53" t="s">
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="29"/>
+      <c r="AN5" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="AO5" s="54"/>
-      <c r="AP5" s="55"/>
+      <c r="AO5" s="28"/>
+      <c r="AP5" s="29"/>
     </row>
     <row r="6" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="3"/>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="24" t="s">
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="24" t="s">
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="24" t="s">
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="24" t="s">
+      <c r="O6" s="56"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="25"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="24" t="s">
+      <c r="R6" s="56"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="U6" s="25"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="27" t="s">
+      <c r="U6" s="56"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="27" t="s">
+      <c r="X6" s="40"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="27" t="s">
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="50" t="s">
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="27" t="s">
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="29"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="41"/>
     </row>
     <row r="7" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="44" t="s">
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="45" t="s">
         <v>369</v>
       </c>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="46"/>
-      <c r="AI7" s="44"/>
-      <c r="AJ7" s="45"/>
-      <c r="AK7" s="46"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="38"/>
     </row>
     <row r="8" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="24" t="s">
+      <c r="G8" s="56"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="24" t="s">
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="24" t="s">
+      <c r="M8" s="56"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="24" t="s">
+      <c r="P8" s="56"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="25"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="24" t="s">
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="V8" s="25"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="27" t="s">
+      <c r="V8" s="56"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="27" t="s">
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="27" t="s">
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="50" t="s">
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="52"/>
+      <c r="AH8" s="31"/>
+      <c r="AI8" s="32"/>
     </row>
     <row r="9" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="53" t="s">
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="55"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="29"/>
     </row>
     <row r="13" spans="3:42">
       <c r="D13" s="1" t="s">
@@ -3316,24 +4787,62 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="AI7:AK7"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
@@ -3350,62 +4859,24 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="AI7:AK7"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AK5:AM5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3413,7 +4884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J51"/>
   <sheetViews>
@@ -4386,7 +5857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:B27"/>
   <sheetViews>

--- a/docs/鍵盤.xlsx
+++ b/docs/鍵盤.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650B8CD8-3F0A-48EE-ABBF-1A6A4F03F96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836F28A2-BE91-4A3F-92D8-1B622C9452BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{F206BDFF-4455-4352-BAF8-8CEF87B44102}"/>
   </bookViews>
   <sheets>
-    <sheet name="注音符號" sheetId="6" r:id="rId1"/>
-    <sheet name="聲調" sheetId="4" r:id="rId2"/>
-    <sheet name="聲韻母" sheetId="2" r:id="rId3"/>
-    <sheet name="說明" sheetId="5" r:id="rId4"/>
+    <sheet name="河洛方音" sheetId="6" r:id="rId1"/>
+    <sheet name="河洛注音" sheetId="7" r:id="rId2"/>
+    <sheet name="河洛白話音" sheetId="9" r:id="rId3"/>
+    <sheet name="河洛白話音 (2)" sheetId="8" r:id="rId4"/>
+    <sheet name="聲韻母" sheetId="2" r:id="rId5"/>
+    <sheet name="說明" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="410">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,14 +193,6 @@
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1610,12 +1604,77 @@
     <t>0   )</t>
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
+  <si>
+    <t>【3】˪</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>【5】ˊ</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>【1】</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>【2】ˋ</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>【7】˫</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>【8】˙</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆴ̇ㆵ̇ㆻ̇ㆷ̇</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄝ</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄥ</t>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="BopomofoRuby1909-v1"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ｎ</t>
+    </r>
+    <phoneticPr fontId="34" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44">
+  <fonts count="52">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1886,6 +1945,58 @@
       <color rgb="FF0070C0"/>
       <name val="Roboto Black"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="BopomofoRuby1909-v1"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="LXGW WenKai Mono TC"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <name val="Iansui 094"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Iansui 094"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Iansui 094"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1919,7 +2030,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1989,11 +2100,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2064,6 +2193,240 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="43" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2073,239 +2436,98 @@
     <xf numFmtId="0" fontId="32" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="43" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="43" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2613,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB014B9C-6F7D-4B9D-A3D0-947810807EC2}">
   <dimension ref="C1:AP23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AS10" sqref="AS10"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AR16" sqref="AR16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2627,1076 +2849,3534 @@
   <sheetData>
     <row r="1" spans="3:42" ht="15" thickBot="1"/>
     <row r="2" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="62" t="s">
         <v>388</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="98" t="s">
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="62" t="s">
         <v>389</v>
       </c>
-      <c r="G2" s="99"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="101" t="s">
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="68" t="s">
         <v>390</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="101" t="s">
+      <c r="P2" s="63"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="62" t="s">
         <v>391</v>
       </c>
-      <c r="M2" s="102"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="104" t="s">
+      <c r="S2" s="63"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="62" t="s">
         <v>392</v>
       </c>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="101" t="s">
+      <c r="V2" s="63"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="41" t="s">
         <v>393</v>
       </c>
-      <c r="S2" s="102"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="101" t="s">
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="41" t="s">
         <v>394</v>
       </c>
-      <c r="V2" s="102"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="94" t="s">
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="41" t="s">
         <v>395</v>
       </c>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="94" t="s">
-        <v>396</v>
-      </c>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="94" t="s">
-        <v>397</v>
-      </c>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="94" t="s">
-        <v>386</v>
-      </c>
-      <c r="AH2" s="95"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="97" t="s">
-        <v>387</v>
-      </c>
-      <c r="AK2" s="95"/>
-      <c r="AL2" s="96"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="36"/>
     </row>
     <row r="3" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C3" s="64" t="str">
+      <c r="C3" s="45" t="str">
         <f>D14</f>
         <v>ㄅ</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="64" t="str">
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="45" t="str">
         <f>H14</f>
         <v>ㄉ</v>
       </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="88" t="s">
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="56" t="s">
         <v>379</v>
       </c>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="88" t="s">
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="56" t="s">
         <v>378</v>
       </c>
-      <c r="M3" s="89"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="88" t="s">
-        <v>381</v>
-      </c>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="88" t="s">
+      <c r="S3" s="57"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="59" t="s">
         <v>380</v>
       </c>
-      <c r="S3" s="89"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="91" t="s">
-        <v>382</v>
-      </c>
-      <c r="V3" s="92"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="70" t="str">
+      <c r="V3" s="60"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="25" t="str">
         <f>D20</f>
         <v>ㄚ</v>
       </c>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="73" t="str">
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="31" t="str">
         <f xml:space="preserve"> K20</f>
         <v>ㄞ</v>
       </c>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="73" t="str">
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="31" t="str">
         <f>R20</f>
         <v>ㄢ</v>
       </c>
-      <c r="AE3" s="74"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="76" t="s">
-        <v>376</v>
-      </c>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="74"/>
-      <c r="AL3" s="75"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="33"/>
     </row>
     <row r="4" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="49"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="79" t="s">
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="79" t="s">
+      <c r="N4" s="49"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="79" t="s">
+      <c r="Q4" s="49"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="80"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="79" t="s">
+      <c r="T4" s="49"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="79" t="s">
+      <c r="W4" s="39"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="80"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="82" t="s">
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="W4" s="83"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="82" t="s">
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="94" t="s">
-        <v>384</v>
-      </c>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="96"/>
-      <c r="AK4" s="94" t="s">
-        <v>385</v>
-      </c>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="94" t="s">
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="41" t="s">
         <v>383</v>
       </c>
-      <c r="AO4" s="95"/>
-      <c r="AP4" s="96"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="36"/>
     </row>
     <row r="5" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="D5" s="64" t="str">
+      <c r="D5" s="45" t="str">
         <f>F14</f>
         <v>ㄆ</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="64" t="str">
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="45" t="str">
         <f>I14</f>
         <v>ㄊ</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="64" t="str">
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="45" t="str">
         <f>L14</f>
         <v>ㄍ</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="64" t="str">
+      <c r="K5" s="46"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="45" t="str">
         <f>Q14</f>
         <v>ㄐ</v>
       </c>
-      <c r="N5" s="65"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="67" t="str">
+      <c r="N5" s="46"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="42" t="str">
         <f>M14</f>
         <v>ㆣ</v>
       </c>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="64" t="str">
+      <c r="Q5" s="43"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="45" t="str">
         <f>U14</f>
         <v>ㄗ</v>
       </c>
-      <c r="T5" s="65"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="70" t="str">
+      <c r="T5" s="46"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="25" t="str">
         <f>X20</f>
         <v>ㄧ</v>
       </c>
-      <c r="W5" s="71"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="70" t="str">
+      <c r="W5" s="26"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="25" t="str">
         <f>F20</f>
         <v>ㆦ</v>
       </c>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="70" t="str">
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="25" t="str">
         <f>I20</f>
         <v>ㆤ</v>
       </c>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="70" t="str">
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="25" t="str">
         <f>S20</f>
         <v>ㄣ</v>
       </c>
-      <c r="AF5" s="71"/>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="27"/>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="27"/>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="29"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="54"/>
+      <c r="AP5" s="55"/>
     </row>
     <row r="6" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="3"/>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="79" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="79" t="s">
+      <c r="I6" s="49"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="79" t="s">
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="80"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="79" t="s">
+      <c r="O6" s="49"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="80"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="79" t="s">
+      <c r="R6" s="49"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="U6" s="80"/>
-      <c r="V6" s="81"/>
-      <c r="W6" s="82" t="s">
+      <c r="U6" s="49"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="82" t="s">
+      <c r="X6" s="39"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="82" t="s">
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="94" t="s">
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="41" t="s">
         <v>375</v>
       </c>
-      <c r="AG6" s="95"/>
-      <c r="AH6" s="96"/>
-      <c r="AI6" s="94" t="s">
-        <v>377</v>
-      </c>
-      <c r="AJ6" s="95"/>
-      <c r="AK6" s="96"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="36"/>
     </row>
     <row r="7" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="E7" s="64" t="str">
+      <c r="E7" s="45" t="str">
         <f>G14</f>
         <v>ㄇ</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="64" t="str">
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="45" t="str">
         <f>J14</f>
         <v>ㄋ</v>
       </c>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="64" t="str">
+      <c r="I7" s="46"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="45" t="str">
         <f>N14</f>
         <v>ㄎ</v>
       </c>
-      <c r="L7" s="65"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="64" t="str">
+      <c r="L7" s="46"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="45" t="str">
         <f>S14</f>
         <v>ㄑ</v>
       </c>
-      <c r="O7" s="65"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="77" t="str">
+      <c r="O7" s="46"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="52" t="str">
         <f>O14</f>
         <v>ㄫ</v>
       </c>
-      <c r="R7" s="68"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="64" t="str">
+      <c r="R7" s="43"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="45" t="str">
         <f>W14</f>
         <v>ㄘ</v>
       </c>
-      <c r="U7" s="65"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="70" t="str">
+      <c r="U7" s="46"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="25" t="str">
         <f>Z20</f>
         <v>ㄨ</v>
       </c>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="70" t="str">
+      <c r="X7" s="26"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="25" t="str">
         <f>H20</f>
         <v>ㄜ</v>
       </c>
-      <c r="AA7" s="71"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="78" t="str">
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="51" t="str">
         <f>M20</f>
         <v>ㄠ</v>
       </c>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="73" t="str">
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="31" t="str">
         <f>T20</f>
         <v>ㄤ</v>
       </c>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="73"/>
-      <c r="AJ7" s="74"/>
-      <c r="AK7" s="75"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="31"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="33"/>
     </row>
     <row r="8" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="79" t="s">
+      <c r="F8" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="80"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="79" t="s">
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="80"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="79" t="s">
+      <c r="J8" s="49"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="80"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="79" t="s">
+      <c r="M8" s="49"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="79" t="s">
+      <c r="P8" s="49"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="80"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="79" t="s">
+      <c r="S8" s="49"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="80"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="82" t="s">
+      <c r="V8" s="49"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="84"/>
-      <c r="AA8" s="94" t="s">
-        <v>373</v>
-      </c>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="96"/>
-      <c r="AD8" s="94" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE8" s="95"/>
-      <c r="AF8" s="96"/>
-      <c r="AG8" s="94" t="s">
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="AH8" s="95"/>
-      <c r="AI8" s="96"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="36"/>
     </row>
     <row r="9" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="F9" s="67" t="str">
+      <c r="F9" s="42" t="str">
         <f>E14</f>
         <v>ㆠ</v>
       </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="64" t="str">
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45" t="str">
         <f>K14</f>
         <v>ㄌ</v>
       </c>
-      <c r="J9" s="65"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="64" t="str">
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="45" t="str">
         <f>P14</f>
         <v>ㄏ</v>
       </c>
-      <c r="M9" s="65"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="64" t="str">
+      <c r="M9" s="46"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="45" t="str">
         <f>T14</f>
         <v>ㄒ</v>
       </c>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="67" t="str">
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="42" t="str">
         <f>V14 &amp; " " &amp; R14</f>
         <v>ㆡ ㆢ</v>
       </c>
-      <c r="S9" s="68"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="64" t="str">
+      <c r="S9" s="43"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="45" t="str">
         <f>X14</f>
         <v>ㄙ</v>
       </c>
-      <c r="V9" s="65"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="70" t="str">
+      <c r="V9" s="46"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="25" t="str">
         <f>Q20</f>
         <v>ㆬ</v>
       </c>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="85" t="str">
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="28" t="str">
         <f>O20 &amp; " " &amp; P20</f>
         <v>ㆰ ㆱ</v>
       </c>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="70" t="str">
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="25" t="str">
         <f>U20</f>
         <v>ㆲ</v>
       </c>
-      <c r="AE9" s="71"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="73" t="str">
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="31" t="str">
         <f>W20</f>
         <v>ㆭ</v>
       </c>
-      <c r="AH9" s="74"/>
-      <c r="AI9" s="75"/>
-      <c r="AL9" s="63" t="s">
-        <v>374</v>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="33"/>
+      <c r="AL9" s="24" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="3:42">
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="3:42">
       <c r="D14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="H14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="3:42" ht="19.5">
       <c r="D15" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="H15" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="I15" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="L15" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="H15" s="20" t="s">
+      <c r="M15" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="I15" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="J15" s="20" t="s">
+      <c r="N15" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="O15" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q15" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="L15" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="N15" s="20" t="s">
+      <c r="R15" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="O15" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q15" s="20" t="s">
+      <c r="S15" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="R15" s="20" t="s">
+      <c r="T15" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="U15" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="S15" s="20" t="s">
+      <c r="V15" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="W15" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="T15" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="U15" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="W15" s="20" t="s">
-        <v>358</v>
-      </c>
       <c r="X15" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Y15" s="16"/>
     </row>
     <row r="16" spans="3:42" ht="19.5">
       <c r="D16" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="I16" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="L16" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="H16" s="18" t="s">
+      <c r="M16" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="I16" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="J16" s="18" t="s">
+      <c r="N16" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="O16" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="L16" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="M16" s="18" t="s">
+      <c r="P16" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="N16" s="18" t="s">
+      <c r="Q16" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="S16" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="T16" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="U16" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="O16" s="18" t="s">
+      <c r="V16" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="P16" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q16" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="R16" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="S16" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="T16" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="U16" s="18" t="s">
+      <c r="W16" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="V16" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="W16" s="18" t="s">
-        <v>308</v>
-      </c>
       <c r="X16" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Y16" s="16"/>
     </row>
     <row r="17" spans="4:27">
       <c r="D17" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="G17" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="H17" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="I17" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="J17" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="K17" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="L17" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="M17" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="N17" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="O17" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="P17" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="O17" s="21" t="s">
+      <c r="Q17" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="P17" s="21" t="s">
+      <c r="R17" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="Q17" s="21" t="s">
+      <c r="S17" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="R17" s="21" t="s">
+      <c r="T17" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="S17" s="21" t="s">
+      <c r="U17" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="T17" s="21" t="s">
+      <c r="V17" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="U17" s="21" t="s">
+      <c r="W17" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="V17" s="21" t="s">
+      <c r="X17" s="21" t="s">
         <v>115</v>
-      </c>
-      <c r="W17" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="X17" s="21" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="4:27">
       <c r="D19" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="4:27">
       <c r="D20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="U20" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="Y20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="Z20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="AA20" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="4:27" ht="15">
       <c r="D21" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E21" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="G21" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="H21" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="J21" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="K21" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="H21" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="J21" s="19" t="s">
+      <c r="L21" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="M21" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="N21" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="M21" s="19" t="s">
+      <c r="O21" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="P21" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="Q21" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="P21" s="19" t="s">
+      <c r="R21" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="Q21" s="19" t="s">
+      <c r="S21" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="R21" s="19" t="s">
+      <c r="T21" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="S21" s="19" t="s">
+      <c r="U21" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="T21" s="19" t="s">
+      <c r="V21" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="U21" s="19" t="s">
+      <c r="W21" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="V21" s="19" t="s">
+      <c r="X21" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y21" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="W21" s="19" t="s">
+      <c r="Z21" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA21" s="19" t="s">
         <v>346</v>
-      </c>
-      <c r="X21" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y21" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z21" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA21" s="19" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="22" spans="4:27" ht="16.5">
       <c r="D22" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E22" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="H22" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="G22" s="17" t="s">
+      <c r="I22" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="J22" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="K22" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="I22" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="J22" s="17" t="s">
+      <c r="L22" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="M22" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="N22" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="M22" s="17" t="s">
+      <c r="O22" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="N22" s="17" t="s">
+      <c r="P22" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="O22" s="17" t="s">
+      <c r="Q22" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="P22" s="17" t="s">
+      <c r="R22" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="Q22" s="17" t="s">
+      <c r="S22" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="R22" s="17" t="s">
+      <c r="T22" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="S22" s="17" t="s">
+      <c r="U22" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="T22" s="17" t="s">
+      <c r="V22" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="U22" s="17" t="s">
+      <c r="W22" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="V22" s="17" t="s">
+      <c r="X22" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y22" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="W22" s="17" t="s">
+      <c r="Z22" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA22" s="17" t="s">
         <v>327</v>
-      </c>
-      <c r="X22" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y22" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="Z22" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA22" s="17" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="23" spans="4:27">
       <c r="D23" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="22" t="s">
         <v>143</v>
       </c>
+      <c r="G23" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="O23" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="P23" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q23" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="R23" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="S23" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="T23" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="U23" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="V23" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="W23" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="X23" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y23" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z23" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA23" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="92">
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AI7:AK7"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+  </mergeCells>
+  <phoneticPr fontId="34" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="O9" formula="1"/>
+    <ignoredError sqref="O2" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD636BF-ADE9-46A0-9B1F-F1CC40F8FC5A}">
+  <dimension ref="C1:AP27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AO20" sqref="AO20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="2.375" style="1" customWidth="1"/>
+    <col min="3" max="42" width="4.5" style="1" customWidth="1"/>
+    <col min="43" max="44" width="2.875" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:42" ht="15" thickBot="1"/>
+    <row r="2" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="C2" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="62" t="s">
+        <v>388</v>
+      </c>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="62" t="s">
+        <v>389</v>
+      </c>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="68" t="s">
+        <v>390</v>
+      </c>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="62" t="s">
+        <v>391</v>
+      </c>
+      <c r="S2" s="63"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="V2" s="63"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="36"/>
+    </row>
+    <row r="3" spans="3:42" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="135" t="str">
+        <f xml:space="preserve">  E18</f>
+        <v>ㆠ</v>
+      </c>
+      <c r="F3" s="123"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="120"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="120"/>
+      <c r="AH3" s="121"/>
+      <c r="AI3" s="122"/>
+      <c r="AJ3" s="130"/>
+      <c r="AK3" s="121"/>
+      <c r="AL3" s="122"/>
+    </row>
+    <row r="4" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C4" s="132" t="str">
+        <f>D18</f>
+        <v>ㄅ</v>
+      </c>
+      <c r="D4" s="133"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="132" t="str">
+        <f>H18</f>
+        <v>ㄉ</v>
+      </c>
+      <c r="G4" s="133"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="M4" s="57"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="56" t="s">
+        <v>379</v>
+      </c>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="S4" s="57"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="V4" s="60"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="25" t="str">
+        <f>D24</f>
+        <v>ㄚ</v>
+      </c>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="31" t="str">
+        <f xml:space="preserve"> K24</f>
+        <v>ㄞ</v>
+      </c>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="31" t="str">
+        <f>R24</f>
+        <v>ㄢ</v>
+      </c>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="33"/>
+    </row>
+    <row r="5" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="D5" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="49"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" s="39"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="36"/>
+    </row>
+    <row r="6" spans="3:42" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="D6" s="114"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="135" t="str">
+        <f>M18</f>
+        <v>ㆣ</v>
+      </c>
+      <c r="M6" s="114"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="114"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="114"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="135" t="str">
+        <f>V18</f>
+        <v>ㆡ</v>
+      </c>
+      <c r="V6" s="117"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="117"/>
+      <c r="Z6" s="118"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="117"/>
+      <c r="AC6" s="118"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="117"/>
+      <c r="AF6" s="118"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="120"/>
+      <c r="AI6" s="121"/>
+      <c r="AJ6" s="122"/>
+      <c r="AK6" s="120"/>
+      <c r="AL6" s="121"/>
+      <c r="AM6" s="122"/>
+      <c r="AN6" s="120"/>
+      <c r="AO6" s="121"/>
+      <c r="AP6" s="122"/>
+    </row>
+    <row r="7" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="D7" s="45" t="str">
+        <f>F18</f>
+        <v>ㄆ</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="45" t="str">
+        <f>I18</f>
+        <v>ㄊ</v>
+      </c>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="132" t="str">
+        <f>L18</f>
+        <v>ㄍ</v>
+      </c>
+      <c r="K7" s="133"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="45" t="str">
+        <f>U18</f>
+        <v>ㄗ</v>
+      </c>
+      <c r="T7" s="46"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="25" t="str">
+        <f>X24</f>
+        <v>ㄧ</v>
+      </c>
+      <c r="W7" s="26"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="25" t="str">
+        <f>F24</f>
+        <v>ㆦ</v>
+      </c>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="25" t="str">
+        <f>S24</f>
+        <v>ㄣ</v>
+      </c>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="54"/>
+      <c r="AM7" s="55"/>
+      <c r="AN7" s="53"/>
+      <c r="AO7" s="54"/>
+      <c r="AP7" s="55"/>
+    </row>
+    <row r="8" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="D8" s="3"/>
+      <c r="E8" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="49"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="49"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="49"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8" s="49"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="36"/>
+    </row>
+    <row r="9" spans="3:42" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="D9" s="3"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="114"/>
+      <c r="R9" s="115"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="114"/>
+      <c r="U9" s="115"/>
+      <c r="V9" s="116"/>
+      <c r="W9" s="117"/>
+      <c r="X9" s="118"/>
+      <c r="Y9" s="119"/>
+      <c r="Z9" s="117"/>
+      <c r="AA9" s="118"/>
+      <c r="AB9" s="119"/>
+      <c r="AC9" s="117"/>
+      <c r="AD9" s="118"/>
+      <c r="AE9" s="119"/>
+      <c r="AF9" s="120"/>
+      <c r="AG9" s="121"/>
+      <c r="AH9" s="122"/>
+      <c r="AI9" s="120"/>
+      <c r="AJ9" s="121"/>
+      <c r="AK9" s="122"/>
+    </row>
+    <row r="10" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="E10" s="45" t="str">
+        <f>G18</f>
+        <v>ㄇ</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="45" t="str">
+        <f>J18</f>
+        <v>ㄋ</v>
+      </c>
+      <c r="I10" s="46"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="45" t="str">
+        <f>N18</f>
+        <v>ㄎ</v>
+      </c>
+      <c r="L10" s="46"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="52" t="str">
+        <f>O18</f>
+        <v>ㄫ</v>
+      </c>
+      <c r="R10" s="43"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="45" t="str">
+        <f>W18</f>
+        <v>ㄘ</v>
+      </c>
+      <c r="U10" s="46"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="25" t="str">
+        <f>Z24</f>
+        <v>ㄨ</v>
+      </c>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="25" t="str">
+        <f>H24</f>
+        <v>ㄜ</v>
+      </c>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="51" t="str">
+        <f>M24</f>
+        <v>ㄠ</v>
+      </c>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="31" t="str">
+        <f>T24</f>
+        <v>ㄤ</v>
+      </c>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="33"/>
+    </row>
+    <row r="11" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="F11" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="49"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" s="49"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="V11" s="49"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="36"/>
+    </row>
+    <row r="12" spans="3:42" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="F12" s="114"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="114"/>
+      <c r="S12" s="115"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="115"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="117"/>
+      <c r="Y12" s="118"/>
+      <c r="Z12" s="119"/>
+      <c r="AA12" s="120"/>
+      <c r="AB12" s="121"/>
+      <c r="AC12" s="122"/>
+      <c r="AD12" s="120"/>
+      <c r="AE12" s="121"/>
+      <c r="AF12" s="122"/>
+      <c r="AG12" s="120"/>
+      <c r="AH12" s="121"/>
+      <c r="AI12" s="122"/>
+    </row>
+    <row r="13" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="F13" s="131" t="s">
+        <v>409</v>
+      </c>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45" t="str">
+        <f>K18</f>
+        <v>ㄌ</v>
+      </c>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="132" t="str">
+        <f>P18</f>
+        <v>ㄏ</v>
+      </c>
+      <c r="M13" s="133"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="45" t="str">
+        <f>X18</f>
+        <v>ㄙ</v>
+      </c>
+      <c r="V13" s="46"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="28" t="str">
+        <f>Q24</f>
+        <v>ㆬ</v>
+      </c>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="33"/>
+      <c r="AL13" s="24" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="4:27">
+      <c r="D17" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="4:27">
+      <c r="D18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="4:27" ht="19.5">
+      <c r="D19" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q19" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="R19" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="S19" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="T19" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="U19" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="V19" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="W19" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="X19" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y19" s="16"/>
+    </row>
+    <row r="20" spans="4:27" ht="19.5">
+      <c r="D20" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="P20" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q20" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="R20" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="S20" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="T20" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="U20" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="V20" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="W20" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="X20" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y20" s="16"/>
+    </row>
+    <row r="21" spans="4:27">
+      <c r="D21" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q21" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="R21" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="S21" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="T21" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="U21" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="V21" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="W21" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="X21" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="4:27">
+      <c r="D23" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="4:27">
+      <c r="D24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="4:27" ht="15">
+      <c r="D25" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P25" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q25" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="R25" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="S25" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="T25" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="U25" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="V25" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="W25" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="X25" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y25" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z25" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA25" s="19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="4:27" ht="16.5">
+      <c r="D26" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="R26" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="S26" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="T26" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="U26" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="V26" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="W26" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="X26" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y26" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z26" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA26" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="4:27">
+      <c r="D27" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="P27" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q27" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="R27" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="S27" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="T27" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="U27" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="V27" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="W27" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="X27" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y27" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z27" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA27" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="92">
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="AG13:AI13"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AG11:AI11"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AI8:AK8"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="AN7:AP7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+  </mergeCells>
+  <phoneticPr fontId="34" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B573B2C2-F7A7-434A-8265-4E3D7832A9AA}">
+  <dimension ref="C1:AV28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="2.375" style="1" customWidth="1"/>
+    <col min="3" max="42" width="3.625" style="1" customWidth="1"/>
+    <col min="43" max="44" width="2.875" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:48" ht="15" thickBot="1"/>
+    <row r="2" spans="3:48" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="C2" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="62" t="s">
+        <v>388</v>
+      </c>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="62" t="s">
+        <v>389</v>
+      </c>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="68" t="s">
+        <v>390</v>
+      </c>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="62" t="s">
+        <v>391</v>
+      </c>
+      <c r="S2" s="63"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="V2" s="63"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="36"/>
+    </row>
+    <row r="3" spans="3:48" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="111" t="s">
+        <v>400</v>
+      </c>
+      <c r="AH3" s="112"/>
+      <c r="AI3" s="113"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="33"/>
+    </row>
+    <row r="4" spans="3:48" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="D4" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="49"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="49"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="49"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="39"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="36"/>
+    </row>
+    <row r="5" spans="3:48" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="111" t="s">
+        <v>401</v>
+      </c>
+      <c r="AL5" s="112"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="111" t="s">
+        <v>399</v>
+      </c>
+      <c r="AO5" s="112"/>
+      <c r="AP5" s="113"/>
+    </row>
+    <row r="6" spans="3:48" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="D6" s="3"/>
+      <c r="E6" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="49"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="49"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="49"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="49"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="36"/>
+    </row>
+    <row r="7" spans="3:48" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="111" t="s">
+        <v>398</v>
+      </c>
+      <c r="AG7" s="112"/>
+      <c r="AH7" s="113"/>
+      <c r="AI7" s="31"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="33"/>
+    </row>
+    <row r="8" spans="3:48" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="F8" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="49"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="49"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="49"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8" s="49"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="36"/>
+    </row>
+    <row r="9" spans="3:48" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="111" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB9" s="112"/>
+      <c r="AC9" s="113"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="111" t="s">
+        <v>397</v>
+      </c>
+      <c r="AH9" s="112"/>
+      <c r="AI9" s="113"/>
+      <c r="AL9" s="24" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="3:48">
+      <c r="AV11" s="23"/>
+    </row>
+    <row r="13" spans="3:48">
+      <c r="D13" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="3:48">
+      <c r="D14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="3:48" ht="19.5">
+      <c r="D15" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="R15" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="S15" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="T15" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="U15" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="V15" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="W15" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="X15" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y15" s="16"/>
+    </row>
+    <row r="16" spans="3:48" ht="19.5">
+      <c r="D16" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="S16" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="T16" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="U16" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="V16" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="W16" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="X16" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y16" s="16"/>
+    </row>
+    <row r="17" spans="4:46">
+      <c r="D17" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="R17" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="S17" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="T17" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="U17" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="V17" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="W17" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="X17" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="4:46">
+      <c r="D19" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="4:46">
+      <c r="D20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="4:46" ht="15">
+      <c r="D21" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="R21" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="S21" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="T21" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="U21" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="V21" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="W21" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="X21" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y21" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z21" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA21" s="19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="4:46" ht="16.5">
+      <c r="D22" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="O22" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="P22" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q22" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="R22" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="S22" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="U22" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="V22" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="W22" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="X22" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y22" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z22" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA22" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="4:46">
+      <c r="D23" s="22" t="s">
+        <v>141</v>
+      </c>
       <c r="E23" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="H23" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="I23" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="J23" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="K23" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="J23" s="22" t="s">
+      <c r="L23" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="M23" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="L23" s="22" t="s">
+      <c r="N23" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="M23" s="22" t="s">
+      <c r="O23" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="N23" s="22" t="s">
+      <c r="P23" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="O23" s="22" t="s">
+      <c r="Q23" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="P23" s="22" t="s">
+      <c r="R23" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="Q23" s="22" t="s">
+      <c r="S23" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="R23" s="22" t="s">
+      <c r="T23" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="S23" s="22" t="s">
+      <c r="U23" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="T23" s="22" t="s">
+      <c r="V23" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="U23" s="22" t="s">
+      <c r="W23" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="V23" s="22" t="s">
+      <c r="X23" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="W23" s="22" t="s">
+      <c r="Y23" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="X23" s="22" t="s">
+      <c r="Z23" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="Y23" s="22" t="s">
+      <c r="AA23" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="Z23" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA23" s="22" t="s">
-        <v>166</v>
+    </row>
+    <row r="25" spans="4:46" ht="38.25">
+      <c r="AM25" s="106" t="s">
+        <v>402</v>
+      </c>
+      <c r="AN25" s="105"/>
+      <c r="AO25" s="107"/>
+      <c r="AP25" s="107"/>
+      <c r="AQ25" s="107"/>
+      <c r="AS25" s="108" t="str">
+        <f xml:space="preserve"> MID($AM$25, 1, 2)</f>
+        <v>ㆴ̇</v>
+      </c>
+      <c r="AT25" s="110" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="4:46" ht="38.25">
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="108" t="str">
+        <f xml:space="preserve"> MID($AM$25, 3, 2)</f>
+        <v>ㆵ̇</v>
+      </c>
+      <c r="AT26" s="110" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="4:46" ht="38.25">
+      <c r="AR27" s="23"/>
+      <c r="AS27" s="108" t="str">
+        <f xml:space="preserve"> MID($AM$25, 5, 2)</f>
+        <v>ㆻ̇</v>
+      </c>
+      <c r="AT27" s="110" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="28" spans="4:46" ht="38.25">
+      <c r="AK28" s="109"/>
+      <c r="AS28" s="108" t="str">
+        <f xml:space="preserve"> MID($AM$25, 7, 2)</f>
+        <v>ㆷ̇</v>
+      </c>
+      <c r="AT28" s="110" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -3705,8 +6385,1089 @@
     <mergeCell ref="AA9:AC9"/>
     <mergeCell ref="AD9:AF9"/>
     <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AI7:AK7"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+  </mergeCells>
+  <phoneticPr fontId="34" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="O2" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDF5706-906A-4D1E-9BDF-D4B8818C4DB8}">
+  <dimension ref="C1:AP23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="2.375" style="1" customWidth="1"/>
+    <col min="3" max="37" width="3.375" style="1" customWidth="1"/>
+    <col min="38" max="44" width="2.875" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:42" ht="15" thickBot="1"/>
+    <row r="2" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="C2" s="69">
+        <v>1</v>
+      </c>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="69">
+        <v>2</v>
+      </c>
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="92">
+        <v>3</v>
+      </c>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="92">
+        <v>4</v>
+      </c>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="92">
+        <v>5</v>
+      </c>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="92">
+        <v>6</v>
+      </c>
+      <c r="S2" s="93"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="92">
+        <v>7</v>
+      </c>
+      <c r="V2" s="93"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="72">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="95">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="95">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="99"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+    </row>
+    <row r="3" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="89" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="89" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="101" t="s">
+        <v>363</v>
+      </c>
+      <c r="AH3" s="90"/>
+      <c r="AI3" s="91"/>
+    </row>
+    <row r="4" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="D4" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="70"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="70"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="70"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="73"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="95" t="s">
+        <v>357</v>
+      </c>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95" t="s">
+        <v>358</v>
+      </c>
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="102" t="s">
+        <v>360</v>
+      </c>
+      <c r="AO4" s="103"/>
+      <c r="AP4" s="104"/>
+    </row>
+    <row r="5" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="76"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="AO5" s="54"/>
+      <c r="AP5" s="55"/>
+    </row>
+    <row r="6" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="D6" s="3"/>
+      <c r="E6" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="70"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="70"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="70"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="70"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="70"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="95" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG6" s="96"/>
+      <c r="AH6" s="97"/>
+      <c r="AI6" s="72" t="s">
+        <v>359</v>
+      </c>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="74"/>
+    </row>
+    <row r="7" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="E7" s="78"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="76"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="76"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="89" t="s">
+        <v>367</v>
+      </c>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="89"/>
+      <c r="AJ7" s="90"/>
+      <c r="AK7" s="91"/>
+    </row>
+    <row r="8" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="F8" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="70"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="70"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8" s="70"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE8" s="73"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="95" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH8" s="96"/>
+      <c r="AI8" s="97"/>
+    </row>
+    <row r="9" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="76"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="55"/>
+    </row>
+    <row r="13" spans="3:42">
+      <c r="D13" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="3:42">
+      <c r="D14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="3:42" ht="19.5">
+      <c r="D15" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="R15" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="S15" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="T15" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="U15" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="V15" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="W15" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="X15" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y15" s="16"/>
+    </row>
+    <row r="16" spans="3:42" ht="19.5">
+      <c r="D16" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="S16" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="T16" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="U16" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="V16" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="W16" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="X16" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y16" s="16"/>
+    </row>
+    <row r="17" spans="4:27">
+      <c r="D17" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="R17" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="S17" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="T17" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="U17" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="V17" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="W17" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="X17" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="4:27">
+      <c r="D19" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="4:27">
+      <c r="D20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="4:27" ht="15">
+      <c r="D21" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="R21" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="S21" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="T21" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="U21" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="V21" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="W21" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="X21" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y21" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z21" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA21" s="19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="4:27" ht="16.5">
+      <c r="D22" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="O22" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="P22" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q22" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="R22" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="S22" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="U22" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="V22" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="W22" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="X22" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y22" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z22" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA22" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="4:27">
+      <c r="D23" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="O23" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="P23" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q23" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="R23" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="S23" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="T23" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="U23" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="V23" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="W23" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="X23" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y23" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z23" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA23" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="90">
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AG9:AI9"/>
     <mergeCell ref="X8:Z8"/>
     <mergeCell ref="AA8:AC8"/>
     <mergeCell ref="AD8:AF8"/>
@@ -3797,1100 +7558,14 @@
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="O9" formula="1"/>
-    <ignoredError sqref="O2" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="C1:AP23"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AI6" sqref="AI6:AK6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="2" width="2.375" style="1" customWidth="1"/>
-    <col min="3" max="37" width="3.375" style="1" customWidth="1"/>
-    <col min="38" max="44" width="2.875" style="1" customWidth="1"/>
-    <col min="45" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:42" ht="15" thickBot="1"/>
-    <row r="2" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="55">
-        <v>1</v>
-      </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="55">
-        <v>2</v>
-      </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="46">
-        <v>3</v>
-      </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="46">
-        <v>4</v>
-      </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="46">
-        <v>5</v>
-      </c>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="46">
-        <v>6</v>
-      </c>
-      <c r="S2" s="47"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="46">
-        <v>7</v>
-      </c>
-      <c r="V2" s="47"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="39">
-        <v>8</v>
-      </c>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="30">
-        <v>9</v>
-      </c>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="30">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-    </row>
-    <row r="3" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="45" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="45" t="s">
-        <v>364</v>
-      </c>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="38"/>
-    </row>
-    <row r="4" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="56"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" s="56"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" s="40"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="26"/>
-    </row>
-    <row r="5" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="29"/>
-    </row>
-    <row r="6" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="D6" s="3"/>
-      <c r="E6" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="56"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="56"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="U6" s="56"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="41"/>
-      <c r="AF6" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="39" t="s">
-        <v>361</v>
-      </c>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="41"/>
-    </row>
-    <row r="7" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="45" t="s">
-        <v>369</v>
-      </c>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="45"/>
-      <c r="AJ7" s="37"/>
-      <c r="AK7" s="38"/>
-    </row>
-    <row r="8" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="56"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="V8" s="56"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="32"/>
-    </row>
-    <row r="9" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="F9" s="49"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="29"/>
-    </row>
-    <row r="13" spans="3:42">
-      <c r="D13" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="3:42">
-      <c r="D14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="3:42" ht="19.5">
-      <c r="D15" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="S15" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="T15" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="U15" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="W15" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="X15" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y15" s="16"/>
-    </row>
-    <row r="16" spans="3:42" ht="19.5">
-      <c r="D16" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="N16" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="O16" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="P16" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q16" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="R16" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="S16" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="T16" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="U16" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="V16" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="W16" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="X16" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y16" s="16"/>
-    </row>
-    <row r="17" spans="4:27">
-      <c r="D17" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="M17" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="O17" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="P17" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q17" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="R17" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="S17" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="T17" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="U17" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="V17" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="W17" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="X17" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="4:27">
-      <c r="D19" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="4:27">
-      <c r="D20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="4:27" ht="15">
-      <c r="D21" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="N21" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="O21" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="P21" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q21" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="R21" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="S21" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="T21" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="U21" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="V21" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="W21" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="X21" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y21" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z21" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA21" s="19" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="22" spans="4:27" ht="16.5">
-      <c r="D22" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="L22" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="N22" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="O22" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="P22" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q22" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="R22" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="S22" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="T22" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="U22" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="V22" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="W22" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="X22" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y22" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="Z22" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA22" s="17" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="23" spans="4:27">
-      <c r="D23" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="M23" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="N23" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="O23" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="P23" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q23" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="R23" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="S23" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="T23" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="U23" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="V23" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="W23" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="X23" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y23" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z23" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA23" s="22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="AI7:AK7"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AK5:AM5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J51"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="26.25"/>
   <cols>
@@ -4906,53 +7581,53 @@
   <sheetData>
     <row r="2" spans="2:7" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="B2" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>17</v>
@@ -4961,118 +7636,118 @@
         <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>24</v>
@@ -5081,18 +7756,18 @@
         <v>12</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>21</v>
@@ -5101,58 +7776,58 @@
         <v>7</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>6</v>
@@ -5160,182 +7835,182 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -5346,39 +8021,39 @@
     </row>
     <row r="26" spans="2:10" ht="18.75">
       <c r="B26" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C26" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="G26" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>0</v>
@@ -5386,42 +8061,42 @@
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -5429,422 +8104,422 @@
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="2:7">
@@ -5857,13 +8532,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
@@ -5872,107 +8545,107 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/docs/鍵盤.xlsx
+++ b/docs/鍵盤.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9FA5C8-BFEA-4270-B9DC-A82BA96CD63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBB8AC1-DE85-4B37-8B0C-96681FDAC298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="5" xr2:uid="{F206BDFF-4455-4352-BAF8-8CEF87B44102}"/>
   </bookViews>
